--- a/Libro1.xlsx
+++ b/Libro1.xlsx
@@ -1,42 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\s4526725\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA12C073-E2BE-4C7C-B724-8E47959B3DE6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15435" windowHeight="9825" xr2:uid="{D0253EF7-842C-4536-B99A-E33A0F8BFF49}"/>
+    <workbookView windowWidth="20490" windowHeight="7845"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+  <si>
+    <t>&gt;&gt;accounts</t>
+  </si>
+  <si>
+    <t>query</t>
+  </si>
+  <si>
+    <t>@Entity</t>
+  </si>
   <si>
     <t>AccountView</t>
   </si>
   <si>
-    <t>@Entity</t>
+    <t>@Repository</t>
+  </si>
+  <si>
+    <t>AccountViewRepository</t>
+  </si>
+  <si>
+    <t>@Component</t>
   </si>
   <si>
     <t>AccountViewProjection</t>
@@ -45,9 +43,6 @@
     <t>import pe.edu.unmsm.upg.banking.accounts.messages.*</t>
   </si>
   <si>
-    <t>@Component</t>
-  </si>
-  <si>
     <t>@EventHandler</t>
   </si>
   <si>
@@ -60,15 +55,6 @@
     <t>DestinationAccountCreditedEvent</t>
   </si>
   <si>
-    <t>AccountViewRepository</t>
-  </si>
-  <si>
-    <t>@Repository</t>
-  </si>
-  <si>
-    <t>query</t>
-  </si>
-  <si>
     <t>messages</t>
   </si>
   <si>
@@ -102,38 +88,269 @@
     <t>SourceAccountNotFoundEvent</t>
   </si>
   <si>
+    <t>domain</t>
+  </si>
+  <si>
+    <t>@Aggregate</t>
+  </si>
+  <si>
     <t>Account</t>
   </si>
   <si>
-    <t>@Aggregate</t>
-  </si>
-  <si>
-    <t>domain</t>
+    <t>import pe.edu.unmsm.upg.banking.accounts.messages.*;</t>
   </si>
   <si>
     <t>@CommandHandler</t>
   </si>
   <si>
-    <t>import pe.edu.unmsm.upg.banking.accounts.messages.*;</t>
-  </si>
-  <si>
     <t>@EventSourcingHandler</t>
+  </si>
+  <si>
+    <t>&gt;&gt;api</t>
+  </si>
+  <si>
+    <t>AccountCommandController.java</t>
+  </si>
+  <si>
+    <t>import pe.edu.unmsm.upg.banking.accounts.application.dto.*;</t>
+  </si>
+  <si>
+    <t>@RestController</t>
+  </si>
+  <si>
+    <t>@RequestMapping</t>
+  </si>
+  <si>
+    <t>import pe.edu.unmsm.upg.banking.customers.query.*;</t>
+  </si>
+  <si>
+    <t>&gt;&gt;application</t>
+  </si>
+  <si>
+    <t>AccountCommandHandler.java</t>
+  </si>
+  <si>
+    <t>&gt;&gt;dto</t>
+  </si>
+  <si>
+    <t>EditAccountErrorResponseDto.java</t>
+  </si>
+  <si>
+    <t>EditAccountOkResponseDto.java</t>
+  </si>
+  <si>
+    <t>EditAccountRequestDto.java</t>
+  </si>
+  <si>
+    <t>OpenAccountErrorResponseDto.java</t>
+  </si>
+  <si>
+    <t>OpenAccountOkResponseDto.java</t>
+  </si>
+  <si>
+    <t>OpenAccountRequestDto.java</t>
+  </si>
+  <si>
+    <t>&gt;&gt;config</t>
+  </si>
+  <si>
+    <t>AxonConfig.java</t>
+  </si>
+  <si>
+    <t>@Configuration</t>
+  </si>
+  <si>
+    <t>AccountCommandHandler</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Liberation Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Liberation Sans"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -142,36 +359,228 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC000"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.39997558519241921"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.15"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -181,44 +590,342 @@
     </border>
     <border>
       <left style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="medium">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Currency" xfId="5" builtinId="4"/>
+    <cellStyle name="Percent" xfId="6" builtinId="5"/>
+    <cellStyle name="Check Cell" xfId="7" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="8" builtinId="17"/>
+    <cellStyle name="Note" xfId="9" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="10" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="11" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="13" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="15" builtinId="35"/>
+    <cellStyle name="Title" xfId="16" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="17" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="18" builtinId="16"/>
+    <cellStyle name="Heading 3" xfId="19" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="20" builtinId="19"/>
+    <cellStyle name="Input" xfId="21" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="22" builtinId="40"/>
+    <cellStyle name="Good" xfId="23" builtinId="26"/>
+    <cellStyle name="Output" xfId="24" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="25" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="26" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="27" builtinId="24"/>
+    <cellStyle name="Total" xfId="28" builtinId="25"/>
+    <cellStyle name="Bad" xfId="29" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="30" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="31" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="32" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="33" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="34" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="35" builtinId="34"/>
+    <cellStyle name="20% - Accent6" xfId="36" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="37" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="38" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="39" builtinId="38"/>
+    <cellStyle name="Accent4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="42" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="45" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -267,7 +974,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -300,26 +1007,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -352,23 +1042,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -510,252 +1183,437 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE21C98-8BCD-485E-AD83-AB575FBAC564}">
-  <dimension ref="H5:N49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="G4:N76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D28" workbookViewId="0">
-      <selection activeCell="J48" sqref="J48"/>
+    <sheetView tabSelected="1" topLeftCell="D52" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="23.42578125" customWidth="1"/>
-    <col min="10" max="10" width="52.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.5714285714286" customWidth="1"/>
+    <col min="9" max="9" width="28.7142857142857" customWidth="1"/>
+    <col min="10" max="10" width="52.7142857142857" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H6" s="5" t="s">
+    <row r="4" spans="7:7">
+      <c r="G4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="15.75"/>
+    <row r="6" ht="15.75" spans="8:8">
+      <c r="H6" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="9:9">
+      <c r="I7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="9:9">
+      <c r="I8" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="9:9">
+      <c r="I10" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="9:10">
+      <c r="I11" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="9:9">
+      <c r="I13" s="13" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="9:10">
+      <c r="I14" t="s">
+        <v>7</v>
+      </c>
+      <c r="J14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="10:10">
+      <c r="J15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="10:10">
+      <c r="J16" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="10:10">
+      <c r="J17" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I7" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I8" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I10" t="s">
+    <row r="18" spans="10:10">
+      <c r="J18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="10:10">
+      <c r="J19" s="6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="10:10">
+      <c r="J20" s="5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="15.75"/>
+    <row r="23" ht="15.75" spans="8:8">
+      <c r="H23" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="9:9">
+      <c r="I24" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="9:9">
+      <c r="I25" s="7" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I13" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I14" t="s">
-        <v>2</v>
-      </c>
-      <c r="J14" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="J15" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="J16" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="J17" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="J19" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="J20" s="3" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="8:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="H23" s="5" t="s">
+    <row r="26" spans="9:9">
+      <c r="I26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="9:9">
+      <c r="I27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="9:9">
+      <c r="I28" s="7" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I24" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I25" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I26" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="28" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I28" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="29" spans="8:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="9:9">
       <c r="I29" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="30" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I30" s="6" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I31" s="7" t="s">
+    <row r="30" spans="9:9">
+      <c r="I30" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="8:10" x14ac:dyDescent="0.25">
-      <c r="I32" s="6" t="s">
+    <row r="31" spans="9:9">
+      <c r="I31" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I33" s="6" t="s">
+    <row r="32" spans="9:9">
+      <c r="I32" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I34" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
+    <row r="33" spans="9:9">
+      <c r="I33" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="9:9">
+      <c r="I34" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" spans="9:9">
+      <c r="I35" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="9:9">
       <c r="I36" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="8:14" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="8:8">
       <c r="H38" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="39" spans="9:9">
+      <c r="I39" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
-        <v>23</v>
+    <row r="40" spans="9:10">
+      <c r="I40" s="11" t="s">
+        <v>26</v>
       </c>
       <c r="J40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="8:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="10:10">
       <c r="J41" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="10:12">
+      <c r="J42" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="K42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="L42" s="7"/>
+    </row>
+    <row r="43" spans="10:14">
+      <c r="J43" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="K43" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L43" s="8"/>
+      <c r="M43" s="8"/>
+      <c r="N43" s="8"/>
+    </row>
+    <row r="44" spans="10:14">
+      <c r="J44" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K44" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L44" s="8"/>
+      <c r="M44" s="8"/>
+      <c r="N44" s="8"/>
+    </row>
+    <row r="45" spans="10:10">
+      <c r="J45" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="10:10">
+      <c r="J46" s="7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="10:10">
+      <c r="J47" s="8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="10:10">
+      <c r="J48" s="7" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" spans="10:10">
+      <c r="J49" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="8:12">
+      <c r="H52" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+    </row>
+    <row r="53" spans="8:12">
+      <c r="H53" s="4"/>
+      <c r="I53" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J53" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="K53" s="4"/>
+      <c r="L53" s="4"/>
+    </row>
+    <row r="54" spans="8:12">
+      <c r="H54" s="4"/>
+      <c r="I54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J54" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="K54" s="4"/>
+      <c r="L54" s="4"/>
+    </row>
+    <row r="55" spans="8:12">
+      <c r="H55" s="4"/>
+      <c r="I55" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="J55" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="K55" s="4"/>
+      <c r="L55" s="4"/>
+    </row>
+    <row r="56" spans="8:12">
+      <c r="H56" s="4"/>
+      <c r="I56" s="3"/>
+      <c r="J56" s="4"/>
+      <c r="K56" s="4"/>
+      <c r="L56" s="4"/>
+    </row>
+    <row r="57" spans="8:12">
+      <c r="H57" s="4"/>
+      <c r="I57" s="3"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+    </row>
+    <row r="58" spans="8:12">
+      <c r="H58" s="4"/>
+      <c r="I58" s="3"/>
+      <c r="J58" s="4"/>
+      <c r="K58" s="4"/>
+      <c r="L58" s="4"/>
+    </row>
+    <row r="59" spans="8:12">
+      <c r="H59" s="4"/>
+      <c r="I59" s="4"/>
+      <c r="J59" s="4"/>
+      <c r="K59" s="4"/>
+      <c r="L59" s="4"/>
+    </row>
+    <row r="60" spans="8:12">
+      <c r="H60" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" s="4"/>
+      <c r="J60" s="4"/>
+      <c r="K60" s="4"/>
+      <c r="L60" s="4"/>
+    </row>
+    <row r="61" spans="8:12">
+      <c r="H61" s="4"/>
+      <c r="I61" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="J61" s="4"/>
+      <c r="K61" s="4"/>
+      <c r="L61" s="4"/>
+    </row>
+    <row r="62" spans="8:12">
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="4"/>
+      <c r="K62" s="4"/>
+      <c r="L62" s="4"/>
+    </row>
+    <row r="63" spans="8:12">
+      <c r="H63" s="4"/>
+      <c r="I63" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="4"/>
+      <c r="K63" s="4"/>
+      <c r="L63" s="4"/>
+    </row>
+    <row r="64" spans="8:12">
+      <c r="H64" s="4"/>
+      <c r="I64" s="4"/>
+      <c r="J64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K64" s="4"/>
+      <c r="L64" s="4"/>
+    </row>
+    <row r="65" spans="8:12">
+      <c r="H65" s="4"/>
+      <c r="I65" s="4"/>
+      <c r="J65" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="K65" s="4"/>
+      <c r="L65" s="4"/>
+    </row>
+    <row r="66" spans="8:12">
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="K66" s="4"/>
+      <c r="L66" s="4"/>
+    </row>
+    <row r="67" spans="8:12">
+      <c r="H67" s="4"/>
+      <c r="I67" s="4"/>
+      <c r="J67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="K67" s="4"/>
+      <c r="L67" s="4"/>
+    </row>
+    <row r="68" spans="8:12">
+      <c r="H68" s="4"/>
+      <c r="I68" s="4"/>
+      <c r="J68" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K68" s="4"/>
+      <c r="L68" s="4"/>
+    </row>
+    <row r="69" spans="8:12">
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K69" s="4"/>
+      <c r="L69" s="4"/>
+    </row>
+    <row r="73" spans="7:8">
+      <c r="G73" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H73" s="4"/>
+    </row>
+    <row r="74" spans="7:9">
+      <c r="G74" s="4"/>
+      <c r="H74" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I74" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="75" spans="9:9">
+      <c r="I75" s="6" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="76" spans="9:9">
+      <c r="I76" s="11" t="s">
         <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J42" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="K42" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="L42" s="4"/>
-    </row>
-    <row r="43" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J43" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="K43" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L43" s="7"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-    </row>
-    <row r="44" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J44" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="K44" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L44" s="7"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="7"/>
-    </row>
-    <row r="45" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J45" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="46" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J46" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J47" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="48" spans="8:14" x14ac:dyDescent="0.25">
-      <c r="J48" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="49" spans="10:10" x14ac:dyDescent="0.25">
-      <c r="J49" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>